--- a/dynamic_bin/DT_0090.xlsx
+++ b/dynamic_bin/DT_0090.xlsx
@@ -401,21 +401,21 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
       </c>
       <c r="C4">
-        <v>65535</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>4294967295</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5">
         <v>65535</v>
